--- a/.idea/auction_dates.xlsx
+++ b/.idea/auction_dates.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F589"/>
+  <dimension ref="A1:F627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12674,10 +12674,8 @@
       <c r="A573" t="n">
         <v>0</v>
       </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>19082000</t>
-        </is>
+      <c r="B573" t="n">
+        <v>19082000</v>
       </c>
       <c r="C573" t="n">
         <v>0</v>
@@ -12696,10 +12694,8 @@
       <c r="A574" t="n">
         <v>0</v>
       </c>
-      <c r="B574" t="inlineStr">
-        <is>
-          <t>19082100</t>
-        </is>
+      <c r="B574" t="n">
+        <v>19082100</v>
       </c>
       <c r="C574" t="n">
         <v>0</v>
@@ -12720,26 +12716,20 @@
           <t>912810SG4</t>
         </is>
       </c>
-      <c r="B575" t="inlineStr">
-        <is>
-          <t>19082200</t>
-        </is>
+      <c r="B575" t="n">
+        <v>19082200</v>
       </c>
       <c r="C575" t="n">
         <v>102000000000</v>
       </c>
-      <c r="D575" t="inlineStr">
-        <is>
-          <t>7000000000</t>
-        </is>
+      <c r="D575" t="n">
+        <v>7000000000</v>
       </c>
       <c r="E575" t="n">
         <v>0.06862745098039216</v>
       </c>
-      <c r="F575" t="inlineStr">
-        <is>
-          <t>19083000</t>
-        </is>
+      <c r="F575" t="n">
+        <v>19083000</v>
       </c>
     </row>
     <row r="576">
@@ -12748,26 +12738,20 @@
           <t>912796VW6</t>
         </is>
       </c>
-      <c r="B576" t="inlineStr">
-        <is>
-          <t>19082200</t>
-        </is>
+      <c r="B576" t="n">
+        <v>19082200</v>
       </c>
       <c r="C576" t="n">
         <v>102000000000</v>
       </c>
-      <c r="D576" t="inlineStr">
-        <is>
-          <t>55000000000</t>
-        </is>
+      <c r="D576" t="n">
+        <v>55000000000</v>
       </c>
       <c r="E576" t="n">
         <v>0.5392156862745098</v>
       </c>
-      <c r="F576" t="inlineStr">
-        <is>
-          <t>19082700</t>
-        </is>
+      <c r="F576" t="n">
+        <v>19082700</v>
       </c>
     </row>
     <row r="577">
@@ -12776,36 +12760,28 @@
           <t>912796WA3</t>
         </is>
       </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>19082200</t>
-        </is>
+      <c r="B577" t="n">
+        <v>19082200</v>
       </c>
       <c r="C577" t="n">
         <v>102000000000</v>
       </c>
-      <c r="D577" t="inlineStr">
-        <is>
-          <t>40000000000</t>
-        </is>
+      <c r="D577" t="n">
+        <v>40000000000</v>
       </c>
       <c r="E577" t="n">
         <v>0.392156862745098</v>
       </c>
-      <c r="F577" t="inlineStr">
-        <is>
-          <t>19082700</t>
-        </is>
+      <c r="F577" t="n">
+        <v>19082700</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
         <v>0</v>
       </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>19082300</t>
-        </is>
+      <c r="B578" t="n">
+        <v>19082300</v>
       </c>
       <c r="C578" t="n">
         <v>0</v>
@@ -12824,10 +12800,8 @@
       <c r="A579" t="n">
         <v>0</v>
       </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>19082400</t>
-        </is>
+      <c r="B579" t="n">
+        <v>19082400</v>
       </c>
       <c r="C579" t="n">
         <v>0</v>
@@ -12846,10 +12820,8 @@
       <c r="A580" t="n">
         <v>0</v>
       </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>19082500</t>
-        </is>
+      <c r="B580" t="n">
+        <v>19082500</v>
       </c>
       <c r="C580" t="n">
         <v>0</v>
@@ -12870,26 +12842,20 @@
           <t>912796SU4</t>
         </is>
       </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>19082600</t>
-        </is>
+      <c r="B581" t="n">
+        <v>19082600</v>
       </c>
       <c r="C581" t="n">
         <v>87000000000</v>
       </c>
-      <c r="D581" t="inlineStr">
-        <is>
-          <t>45000000000</t>
-        </is>
+      <c r="D581" t="n">
+        <v>45000000000</v>
       </c>
       <c r="E581" t="n">
         <v>0.5172413793103449</v>
       </c>
-      <c r="F581" t="inlineStr">
-        <is>
-          <t>19082900</t>
-        </is>
+      <c r="F581" t="n">
+        <v>19082900</v>
       </c>
     </row>
     <row r="582">
@@ -12898,26 +12864,20 @@
           <t>912796SD2</t>
         </is>
       </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>19082600</t>
-        </is>
+      <c r="B582" t="n">
+        <v>19082600</v>
       </c>
       <c r="C582" t="n">
         <v>87000000000</v>
       </c>
-      <c r="D582" t="inlineStr">
-        <is>
-          <t>42000000000</t>
-        </is>
+      <c r="D582" t="n">
+        <v>42000000000</v>
       </c>
       <c r="E582" t="n">
         <v>0.4827586206896552</v>
       </c>
-      <c r="F582" t="inlineStr">
-        <is>
-          <t>19082900</t>
-        </is>
+      <c r="F582" t="n">
+        <v>19082900</v>
       </c>
     </row>
     <row r="583">
@@ -12926,26 +12886,20 @@
           <t>912828YC8</t>
         </is>
       </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>19082700</t>
-        </is>
+      <c r="B583" t="n">
+        <v>19082700</v>
       </c>
       <c r="C583" t="n">
         <v>40000000000</v>
       </c>
-      <c r="D583" t="inlineStr">
-        <is>
-          <t>40000000000</t>
-        </is>
+      <c r="D583" t="n">
+        <v>40000000000</v>
       </c>
       <c r="E583" t="n">
         <v>1</v>
       </c>
-      <c r="F583" t="inlineStr">
-        <is>
-          <t>19090300</t>
-        </is>
+      <c r="F583" t="n">
+        <v>19090300</v>
       </c>
     </row>
     <row r="584">
@@ -12954,26 +12908,20 @@
           <t>912828YE4</t>
         </is>
       </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>19082800</t>
-        </is>
+      <c r="B584" t="n">
+        <v>19082800</v>
       </c>
       <c r="C584" t="n">
         <v>59000000000</v>
       </c>
-      <c r="D584" t="inlineStr">
-        <is>
-          <t>41000000000</t>
-        </is>
+      <c r="D584" t="n">
+        <v>41000000000</v>
       </c>
       <c r="E584" t="n">
         <v>0.6949152542372882</v>
       </c>
-      <c r="F584" t="inlineStr">
-        <is>
-          <t>19090300</t>
-        </is>
+      <c r="F584" t="n">
+        <v>19090300</v>
       </c>
     </row>
     <row r="585">
@@ -12982,26 +12930,20 @@
           <t>9128287G9</t>
         </is>
       </c>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>19082800</t>
-        </is>
+      <c r="B585" t="n">
+        <v>19082800</v>
       </c>
       <c r="C585" t="n">
         <v>59000000000</v>
       </c>
-      <c r="D585" t="inlineStr">
-        <is>
-          <t>18000000000</t>
-        </is>
+      <c r="D585" t="n">
+        <v>18000000000</v>
       </c>
       <c r="E585" t="n">
         <v>0.3050847457627119</v>
       </c>
-      <c r="F585" t="inlineStr">
-        <is>
-          <t>19083000</t>
-        </is>
+      <c r="F585" t="n">
+        <v>19083000</v>
       </c>
     </row>
     <row r="586">
@@ -13010,26 +12952,20 @@
           <t>912796VX4</t>
         </is>
       </c>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>19082900</t>
-        </is>
+      <c r="B586" t="n">
+        <v>19082900</v>
       </c>
       <c r="C586" t="n">
         <v>127000000000</v>
       </c>
-      <c r="D586" t="inlineStr">
-        <is>
-          <t>55000000000</t>
-        </is>
+      <c r="D586" t="n">
+        <v>55000000000</v>
       </c>
       <c r="E586" t="n">
         <v>0.4330708661417323</v>
       </c>
-      <c r="F586" t="inlineStr">
-        <is>
-          <t>19090300</t>
-        </is>
+      <c r="F586" t="n">
+        <v>19090300</v>
       </c>
     </row>
     <row r="587">
@@ -13038,26 +12974,20 @@
           <t>912796WB1</t>
         </is>
       </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>19082900</t>
-        </is>
+      <c r="B587" t="n">
+        <v>19082900</v>
       </c>
       <c r="C587" t="n">
         <v>127000000000</v>
       </c>
-      <c r="D587" t="inlineStr">
-        <is>
-          <t>40000000000</t>
-        </is>
+      <c r="D587" t="n">
+        <v>40000000000</v>
       </c>
       <c r="E587" t="n">
         <v>0.3149606299212598</v>
       </c>
-      <c r="F587" t="inlineStr">
-        <is>
-          <t>19090300</t>
-        </is>
+      <c r="F587" t="n">
+        <v>19090300</v>
       </c>
     </row>
     <row r="588">
@@ -13066,36 +12996,28 @@
           <t>912828YD6</t>
         </is>
       </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>19082900</t>
-        </is>
+      <c r="B588" t="n">
+        <v>19082900</v>
       </c>
       <c r="C588" t="n">
         <v>127000000000</v>
       </c>
-      <c r="D588" t="inlineStr">
-        <is>
-          <t>32000000000</t>
-        </is>
+      <c r="D588" t="n">
+        <v>32000000000</v>
       </c>
       <c r="E588" t="n">
         <v>0.2519685039370079</v>
       </c>
-      <c r="F588" t="inlineStr">
-        <is>
-          <t>19090300</t>
-        </is>
+      <c r="F588" t="n">
+        <v>19090300</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
         <v>0</v>
       </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>19083000</t>
-        </is>
+      <c r="B589" t="n">
+        <v>19083000</v>
       </c>
       <c r="C589" t="n">
         <v>0</v>
@@ -13108,6 +13030,878 @@
       </c>
       <c r="F589" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>0</v>
+      </c>
+      <c r="B590" t="n">
+        <v>20080800</v>
+      </c>
+      <c r="C590" t="n">
+        <v>0</v>
+      </c>
+      <c r="D590" t="n">
+        <v>0</v>
+      </c>
+      <c r="E590" t="n">
+        <v>0</v>
+      </c>
+      <c r="F590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>0</v>
+      </c>
+      <c r="B591" t="n">
+        <v>20080900</v>
+      </c>
+      <c r="C591" t="n">
+        <v>0</v>
+      </c>
+      <c r="D591" t="n">
+        <v>0</v>
+      </c>
+      <c r="E591" t="n">
+        <v>0</v>
+      </c>
+      <c r="F591" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>9127962Z1</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>20081000</v>
+      </c>
+      <c r="C592" t="n">
+        <v>105000000000</v>
+      </c>
+      <c r="D592" t="n">
+        <v>54000000000</v>
+      </c>
+      <c r="E592" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="F592" t="n">
+        <v>20081300</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>9127964C0</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>20081000</v>
+      </c>
+      <c r="C593" t="n">
+        <v>105000000000</v>
+      </c>
+      <c r="D593" t="n">
+        <v>51000000000</v>
+      </c>
+      <c r="E593" t="n">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="F593" t="n">
+        <v>20081300</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>91282CAF8</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>20081100</v>
+      </c>
+      <c r="C594" t="n">
+        <v>142000000000</v>
+      </c>
+      <c r="D594" t="n">
+        <v>48000000000</v>
+      </c>
+      <c r="E594" t="n">
+        <v>0.3380281690140845</v>
+      </c>
+      <c r="F594" t="n">
+        <v>20081700</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>9127962H1</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>20081100</v>
+      </c>
+      <c r="C595" t="n">
+        <v>142000000000</v>
+      </c>
+      <c r="D595" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="E595" t="n">
+        <v>0.2112676056338028</v>
+      </c>
+      <c r="F595" t="n">
+        <v>20081300</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>9127963J6</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>20081100</v>
+      </c>
+      <c r="C596" t="n">
+        <v>142000000000</v>
+      </c>
+      <c r="D596" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="E596" t="n">
+        <v>0.2112676056338028</v>
+      </c>
+      <c r="F596" t="n">
+        <v>20081300</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>9127964B2</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>20081100</v>
+      </c>
+      <c r="C597" t="n">
+        <v>142000000000</v>
+      </c>
+      <c r="D597" t="n">
+        <v>34000000000</v>
+      </c>
+      <c r="E597" t="n">
+        <v>0.2394366197183098</v>
+      </c>
+      <c r="F597" t="n">
+        <v>20081300</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>9127964U0</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>20081200</v>
+      </c>
+      <c r="C598" t="n">
+        <v>93000000000</v>
+      </c>
+      <c r="D598" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="E598" t="n">
+        <v>0.2688172043010753</v>
+      </c>
+      <c r="F598" t="n">
+        <v>20081800</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>912796A74</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>20081200</v>
+      </c>
+      <c r="C599" t="n">
+        <v>93000000000</v>
+      </c>
+      <c r="D599" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="E599" t="n">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="F599" t="n">
+        <v>20081800</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>91282CAE1</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>20081200</v>
+      </c>
+      <c r="C600" t="n">
+        <v>93000000000</v>
+      </c>
+      <c r="D600" t="n">
+        <v>38000000000</v>
+      </c>
+      <c r="E600" t="n">
+        <v>0.4086021505376344</v>
+      </c>
+      <c r="F600" t="n">
+        <v>20081700</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>9127963Y3</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>20081300</v>
+      </c>
+      <c r="C601" t="n">
+        <v>91000000000</v>
+      </c>
+      <c r="D601" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="E601" t="n">
+        <v>0.3296703296703297</v>
+      </c>
+      <c r="F601" t="n">
+        <v>20081800</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>9127964H9</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>20081300</v>
+      </c>
+      <c r="C602" t="n">
+        <v>91000000000</v>
+      </c>
+      <c r="D602" t="n">
+        <v>35000000000</v>
+      </c>
+      <c r="E602" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="F602" t="n">
+        <v>20081800</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>912810SP4</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>20081300</v>
+      </c>
+      <c r="C603" t="n">
+        <v>91000000000</v>
+      </c>
+      <c r="D603" t="n">
+        <v>26000000000</v>
+      </c>
+      <c r="E603" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F603" t="n">
+        <v>20081700</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>0</v>
+      </c>
+      <c r="B604" t="n">
+        <v>20081400</v>
+      </c>
+      <c r="C604" t="n">
+        <v>0</v>
+      </c>
+      <c r="D604" t="n">
+        <v>0</v>
+      </c>
+      <c r="E604" t="n">
+        <v>0</v>
+      </c>
+      <c r="F604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>0</v>
+      </c>
+      <c r="B605" t="n">
+        <v>20081500</v>
+      </c>
+      <c r="C605" t="n">
+        <v>0</v>
+      </c>
+      <c r="D605" t="n">
+        <v>0</v>
+      </c>
+      <c r="E605" t="n">
+        <v>0</v>
+      </c>
+      <c r="F605" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>0</v>
+      </c>
+      <c r="B606" t="n">
+        <v>20081600</v>
+      </c>
+      <c r="C606" t="n">
+        <v>0</v>
+      </c>
+      <c r="D606" t="n">
+        <v>0</v>
+      </c>
+      <c r="E606" t="n">
+        <v>0</v>
+      </c>
+      <c r="F606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>9127963A5</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>20081700</v>
+      </c>
+      <c r="C607" t="n">
+        <v>105000000000</v>
+      </c>
+      <c r="D607" t="n">
+        <v>54000000000</v>
+      </c>
+      <c r="E607" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="F607" t="n">
+        <v>20082000</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>9127964D8</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>20081700</v>
+      </c>
+      <c r="C608" t="n">
+        <v>105000000000</v>
+      </c>
+      <c r="D608" t="n">
+        <v>51000000000</v>
+      </c>
+      <c r="E608" t="n">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="F608" t="n">
+        <v>20082000</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>9127962J7</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>20081800</v>
+      </c>
+      <c r="C609" t="n">
+        <v>60000000000</v>
+      </c>
+      <c r="D609" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="E609" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F609" t="n">
+        <v>20082000</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>9127963K3</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>20081800</v>
+      </c>
+      <c r="C610" t="n">
+        <v>60000000000</v>
+      </c>
+      <c r="D610" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="E610" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F610" t="n">
+        <v>20082000</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>912810SQ2</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>20081900</v>
+      </c>
+      <c r="C611" t="n">
+        <v>80000000000</v>
+      </c>
+      <c r="D611" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="E611" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="F611" t="n">
+        <v>20083100</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>9127965B1</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>20081900</v>
+      </c>
+      <c r="C612" t="n">
+        <v>80000000000</v>
+      </c>
+      <c r="D612" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="E612" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="F612" t="n">
+        <v>20082500</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>912796A82</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>20081900</v>
+      </c>
+      <c r="C613" t="n">
+        <v>80000000000</v>
+      </c>
+      <c r="D613" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="E613" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F613" t="n">
+        <v>20082500</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>912810SM1</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>20082000</v>
+      </c>
+      <c r="C614" t="n">
+        <v>72000000000</v>
+      </c>
+      <c r="D614" t="n">
+        <v>7000000000</v>
+      </c>
+      <c r="E614" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="F614" t="n">
+        <v>20083100</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>9127963Z0</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>20082000</v>
+      </c>
+      <c r="C615" t="n">
+        <v>72000000000</v>
+      </c>
+      <c r="D615" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="E615" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="F615" t="n">
+        <v>20082500</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>9127964J5</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>20082000</v>
+      </c>
+      <c r="C616" t="n">
+        <v>72000000000</v>
+      </c>
+      <c r="D616" t="n">
+        <v>35000000000</v>
+      </c>
+      <c r="E616" t="n">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="F616" t="n">
+        <v>20082500</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>0</v>
+      </c>
+      <c r="B617" t="n">
+        <v>20082100</v>
+      </c>
+      <c r="C617" t="n">
+        <v>0</v>
+      </c>
+      <c r="D617" t="n">
+        <v>0</v>
+      </c>
+      <c r="E617" t="n">
+        <v>0</v>
+      </c>
+      <c r="F617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>0</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>20082200</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>0</v>
+      </c>
+      <c r="D618" t="n">
+        <v>0</v>
+      </c>
+      <c r="E618" t="n">
+        <v>0</v>
+      </c>
+      <c r="F618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>0</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>20082300</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>0</v>
+      </c>
+      <c r="D619" t="n">
+        <v>0</v>
+      </c>
+      <c r="E619" t="n">
+        <v>0</v>
+      </c>
+      <c r="F619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>9127963B3</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>20082400</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>105000000000</v>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>54000000000</t>
+        </is>
+      </c>
+      <c r="E620" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>20082700</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>912796XE4</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>20082400</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>105000000000</v>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>51000000000</t>
+        </is>
+      </c>
+      <c r="E621" t="n">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>20082700</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>91282CAG6</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>20082500</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>110000000000</v>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>50000000000</t>
+        </is>
+      </c>
+      <c r="E622" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>20083100</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>912796TN9</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>20082500</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>110000000000</v>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>30000000000</t>
+        </is>
+      </c>
+      <c r="E623" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>20082700</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>9127963L1</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>20082500</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>110000000000</v>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>30000000000</t>
+        </is>
+      </c>
+      <c r="E624" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>20082700</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>91282CAJ0</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>20082600</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>73000000000</v>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>51000000000</t>
+        </is>
+      </c>
+      <c r="E625" t="n">
+        <v>0.6986301369863014</v>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>20083100</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>91282CAA9</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>20082600</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>73000000000</v>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>22000000000</t>
+        </is>
+      </c>
+      <c r="E626" t="n">
+        <v>0.3013698630136986</v>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>20082800</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>91282CAH4</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>20082700</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>47000000000</v>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>47000000000</t>
+        </is>
+      </c>
+      <c r="E627" t="n">
+        <v>1</v>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>20083100</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/.idea/auction_dates.xlsx
+++ b/.idea/auction_dates.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F627"/>
+  <dimension ref="A1:F621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13736,174 +13736,6 @@
         </is>
       </c>
     </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>91282CAG6</t>
-        </is>
-      </c>
-      <c r="B622" t="inlineStr">
-        <is>
-          <t>20082500</t>
-        </is>
-      </c>
-      <c r="C622" t="n">
-        <v>110000000000</v>
-      </c>
-      <c r="D622" t="inlineStr">
-        <is>
-          <t>50000000000</t>
-        </is>
-      </c>
-      <c r="E622" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="F622" t="inlineStr">
-        <is>
-          <t>20083100</t>
-        </is>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>912796TN9</t>
-        </is>
-      </c>
-      <c r="B623" t="inlineStr">
-        <is>
-          <t>20082500</t>
-        </is>
-      </c>
-      <c r="C623" t="n">
-        <v>110000000000</v>
-      </c>
-      <c r="D623" t="inlineStr">
-        <is>
-          <t>30000000000</t>
-        </is>
-      </c>
-      <c r="E623" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="F623" t="inlineStr">
-        <is>
-          <t>20082700</t>
-        </is>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
-        <is>
-          <t>9127963L1</t>
-        </is>
-      </c>
-      <c r="B624" t="inlineStr">
-        <is>
-          <t>20082500</t>
-        </is>
-      </c>
-      <c r="C624" t="n">
-        <v>110000000000</v>
-      </c>
-      <c r="D624" t="inlineStr">
-        <is>
-          <t>30000000000</t>
-        </is>
-      </c>
-      <c r="E624" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="F624" t="inlineStr">
-        <is>
-          <t>20082700</t>
-        </is>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="inlineStr">
-        <is>
-          <t>91282CAJ0</t>
-        </is>
-      </c>
-      <c r="B625" t="inlineStr">
-        <is>
-          <t>20082600</t>
-        </is>
-      </c>
-      <c r="C625" t="n">
-        <v>73000000000</v>
-      </c>
-      <c r="D625" t="inlineStr">
-        <is>
-          <t>51000000000</t>
-        </is>
-      </c>
-      <c r="E625" t="n">
-        <v>0.6986301369863014</v>
-      </c>
-      <c r="F625" t="inlineStr">
-        <is>
-          <t>20083100</t>
-        </is>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
-        <is>
-          <t>91282CAA9</t>
-        </is>
-      </c>
-      <c r="B626" t="inlineStr">
-        <is>
-          <t>20082600</t>
-        </is>
-      </c>
-      <c r="C626" t="n">
-        <v>73000000000</v>
-      </c>
-      <c r="D626" t="inlineStr">
-        <is>
-          <t>22000000000</t>
-        </is>
-      </c>
-      <c r="E626" t="n">
-        <v>0.3013698630136986</v>
-      </c>
-      <c r="F626" t="inlineStr">
-        <is>
-          <t>20082800</t>
-        </is>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="inlineStr">
-        <is>
-          <t>91282CAH4</t>
-        </is>
-      </c>
-      <c r="B627" t="inlineStr">
-        <is>
-          <t>20082700</t>
-        </is>
-      </c>
-      <c r="C627" t="n">
-        <v>47000000000</v>
-      </c>
-      <c r="D627" t="inlineStr">
-        <is>
-          <t>47000000000</t>
-        </is>
-      </c>
-      <c r="E627" t="n">
-        <v>1</v>
-      </c>
-      <c r="F627" t="inlineStr">
-        <is>
-          <t>20083100</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/auction_dates.xlsx
+++ b/.idea/auction_dates.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F621"/>
+  <dimension ref="A1:F635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13640,10 +13640,8 @@
       <c r="A618" t="n">
         <v>0</v>
       </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>20082200</t>
-        </is>
+      <c r="B618" t="n">
+        <v>20082200</v>
       </c>
       <c r="C618" t="n">
         <v>0</v>
@@ -13662,10 +13660,8 @@
       <c r="A619" t="n">
         <v>0</v>
       </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>20082300</t>
-        </is>
+      <c r="B619" t="n">
+        <v>20082300</v>
       </c>
       <c r="C619" t="n">
         <v>0</v>
@@ -13686,26 +13682,20 @@
           <t>9127963B3</t>
         </is>
       </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t>20082400</t>
-        </is>
+      <c r="B620" t="n">
+        <v>20082400</v>
       </c>
       <c r="C620" t="n">
         <v>105000000000</v>
       </c>
-      <c r="D620" t="inlineStr">
-        <is>
-          <t>54000000000</t>
-        </is>
+      <c r="D620" t="n">
+        <v>54000000000</v>
       </c>
       <c r="E620" t="n">
         <v>0.5142857142857142</v>
       </c>
-      <c r="F620" t="inlineStr">
-        <is>
-          <t>20082700</t>
-        </is>
+      <c r="F620" t="n">
+        <v>20082700</v>
       </c>
     </row>
     <row r="621">
@@ -13714,26 +13704,370 @@
           <t>912796XE4</t>
         </is>
       </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>20082400</t>
-        </is>
+      <c r="B621" t="n">
+        <v>20082400</v>
       </c>
       <c r="C621" t="n">
         <v>105000000000</v>
       </c>
-      <c r="D621" t="inlineStr">
-        <is>
-          <t>51000000000</t>
-        </is>
+      <c r="D621" t="n">
+        <v>51000000000</v>
       </c>
       <c r="E621" t="n">
         <v>0.4857142857142857</v>
       </c>
-      <c r="F621" t="inlineStr">
+      <c r="F621" t="n">
+        <v>20082700</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>91282CAG6</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>20082500</v>
+      </c>
+      <c r="C622" t="n">
+        <v>110000000000</v>
+      </c>
+      <c r="D622" t="n">
+        <v>50000000000</v>
+      </c>
+      <c r="E622" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="F622" t="n">
+        <v>20083100</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>912796TN9</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>20082500</v>
+      </c>
+      <c r="C623" t="n">
+        <v>110000000000</v>
+      </c>
+      <c r="D623" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="E623" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="F623" t="n">
+        <v>20082700</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>9127963L1</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>20082500</v>
+      </c>
+      <c r="C624" t="n">
+        <v>110000000000</v>
+      </c>
+      <c r="D624" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="E624" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="F624" t="n">
+        <v>20082700</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>9127965C9</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>20082600</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>128000000000</v>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>25000000000</t>
+        </is>
+      </c>
+      <c r="E625" t="n">
+        <v>0.1953125</v>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>20090100</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>912796B65</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>20082600</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>128000000000</v>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>30000000000</t>
+        </is>
+      </c>
+      <c r="E626" t="n">
+        <v>0.234375</v>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>20090100</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>91282CAJ0</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>20082600</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>128000000000</v>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>51000000000</t>
+        </is>
+      </c>
+      <c r="E627" t="n">
+        <v>0.3984375</v>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>20083100</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>91282CAA9</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>20082600</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>128000000000</v>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>22000000000</t>
+        </is>
+      </c>
+      <c r="E628" t="n">
+        <v>0.171875</v>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>20082800</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>9127964A4</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
         <is>
           <t>20082700</t>
         </is>
+      </c>
+      <c r="C629" t="n">
+        <v>112000000000</v>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>30000000000</t>
+        </is>
+      </c>
+      <c r="E629" t="n">
+        <v>0.2678571428571428</v>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>20090100</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>9127964K2</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>20082700</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>112000000000</v>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>35000000000</t>
+        </is>
+      </c>
+      <c r="E630" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>20090100</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>91282CAH4</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>20082700</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>112000000000</v>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>47000000000</t>
+        </is>
+      </c>
+      <c r="E631" t="n">
+        <v>0.4196428571428572</v>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>20083100</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>0</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>20082800</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>0</v>
+      </c>
+      <c r="D632" t="n">
+        <v>0</v>
+      </c>
+      <c r="E632" t="n">
+        <v>0</v>
+      </c>
+      <c r="F632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>0</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>20082900</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>0</v>
+      </c>
+      <c r="D633" t="n">
+        <v>0</v>
+      </c>
+      <c r="E633" t="n">
+        <v>0</v>
+      </c>
+      <c r="F633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>0</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>20083000</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>0</v>
+      </c>
+      <c r="D634" t="n">
+        <v>0</v>
+      </c>
+      <c r="E634" t="n">
+        <v>0</v>
+      </c>
+      <c r="F634" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>0</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>20083100</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>0</v>
+      </c>
+      <c r="D635" t="n">
+        <v>0</v>
+      </c>
+      <c r="E635" t="n">
+        <v>0</v>
+      </c>
+      <c r="F635" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/.idea/auction_dates.xlsx
+++ b/.idea/auction_dates.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F635"/>
+  <dimension ref="A1:F642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14070,6 +14070,160 @@
         <v>0</v>
       </c>
     </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>0</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>20090100</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>0</v>
+      </c>
+      <c r="D636" t="n">
+        <v>0</v>
+      </c>
+      <c r="E636" t="n">
+        <v>0</v>
+      </c>
+      <c r="F636" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>0</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>20090200</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>0</v>
+      </c>
+      <c r="D637" t="n">
+        <v>0</v>
+      </c>
+      <c r="E637" t="n">
+        <v>0</v>
+      </c>
+      <c r="F637" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>0</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>20090300</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>0</v>
+      </c>
+      <c r="D638" t="n">
+        <v>0</v>
+      </c>
+      <c r="E638" t="n">
+        <v>0</v>
+      </c>
+      <c r="F638" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>0</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>20090400</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>0</v>
+      </c>
+      <c r="D639" t="n">
+        <v>0</v>
+      </c>
+      <c r="E639" t="n">
+        <v>0</v>
+      </c>
+      <c r="F639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>0</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>20090500</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>0</v>
+      </c>
+      <c r="D640" t="n">
+        <v>0</v>
+      </c>
+      <c r="E640" t="n">
+        <v>0</v>
+      </c>
+      <c r="F640" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>0</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>20090600</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>0</v>
+      </c>
+      <c r="D641" t="n">
+        <v>0</v>
+      </c>
+      <c r="E641" t="n">
+        <v>0</v>
+      </c>
+      <c r="F641" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>0</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>20090700</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>0</v>
+      </c>
+      <c r="D642" t="n">
+        <v>0</v>
+      </c>
+      <c r="E642" t="n">
+        <v>0</v>
+      </c>
+      <c r="F642" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/auction_dates.xlsx
+++ b/.idea/auction_dates.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F461"/>
+  <dimension ref="A1:F446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10018,384 +10018,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" t="n">
-        <v>0</v>
-      </c>
-      <c r="B447" t="inlineStr">
-        <is>
-          <t>20090500</t>
-        </is>
-      </c>
-      <c r="C447" t="n">
-        <v>0</v>
-      </c>
-      <c r="D447" t="n">
-        <v>0</v>
-      </c>
-      <c r="E447" t="n">
-        <v>0</v>
-      </c>
-      <c r="F447" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="n">
-        <v>0</v>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>20090600</t>
-        </is>
-      </c>
-      <c r="C448" t="n">
-        <v>0</v>
-      </c>
-      <c r="D448" t="n">
-        <v>0</v>
-      </c>
-      <c r="E448" t="n">
-        <v>0</v>
-      </c>
-      <c r="F448" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="n">
-        <v>0</v>
-      </c>
-      <c r="B449" t="inlineStr">
-        <is>
-          <t>20090700</t>
-        </is>
-      </c>
-      <c r="C449" t="n">
-        <v>0</v>
-      </c>
-      <c r="D449" t="n">
-        <v>0</v>
-      </c>
-      <c r="E449" t="n">
-        <v>0</v>
-      </c>
-      <c r="F449" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>91282CAK7</t>
-        </is>
-      </c>
-      <c r="B450" t="inlineStr">
-        <is>
-          <t>20090800</t>
-        </is>
-      </c>
-      <c r="C450" t="n">
-        <v>249000000000</v>
-      </c>
-      <c r="D450" t="inlineStr">
-        <is>
-          <t>50000000000</t>
-        </is>
-      </c>
-      <c r="E450" t="n">
-        <v>0.2008032128514056</v>
-      </c>
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>20091500</t>
-        </is>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>9127962S7</t>
-        </is>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>20090800</t>
-        </is>
-      </c>
-      <c r="C451" t="n">
-        <v>249000000000</v>
-      </c>
-      <c r="D451" t="inlineStr">
-        <is>
-          <t>30000000000</t>
-        </is>
-      </c>
-      <c r="E451" t="n">
-        <v>0.1204819277108434</v>
-      </c>
-      <c r="F451" t="inlineStr">
-        <is>
-          <t>20091000</t>
-        </is>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>9127963J6</t>
-        </is>
-      </c>
-      <c r="B452" t="inlineStr">
-        <is>
-          <t>20090800</t>
-        </is>
-      </c>
-      <c r="C452" t="n">
-        <v>249000000000</v>
-      </c>
-      <c r="D452" t="inlineStr">
-        <is>
-          <t>54000000000</t>
-        </is>
-      </c>
-      <c r="E452" t="n">
-        <v>0.2168674698795181</v>
-      </c>
-      <c r="F452" t="inlineStr">
-        <is>
-          <t>20091000</t>
-        </is>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>9127963T4</t>
-        </is>
-      </c>
-      <c r="B453" t="inlineStr">
-        <is>
-          <t>20090800</t>
-        </is>
-      </c>
-      <c r="C453" t="n">
-        <v>249000000000</v>
-      </c>
-      <c r="D453" t="inlineStr">
-        <is>
-          <t>30000000000</t>
-        </is>
-      </c>
-      <c r="E453" t="n">
-        <v>0.1204819277108434</v>
-      </c>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>20091000</t>
-        </is>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>9127964M8</t>
-        </is>
-      </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t>20090800</t>
-        </is>
-      </c>
-      <c r="C454" t="n">
-        <v>249000000000</v>
-      </c>
-      <c r="D454" t="inlineStr">
-        <is>
-          <t>51000000000</t>
-        </is>
-      </c>
-      <c r="E454" t="n">
-        <v>0.2048192771084337</v>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>20091000</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>9127964L0</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>20090800</t>
-        </is>
-      </c>
-      <c r="C455" t="n">
-        <v>249000000000</v>
-      </c>
-      <c r="D455" t="inlineStr">
-        <is>
-          <t>34000000000</t>
-        </is>
-      </c>
-      <c r="E455" t="n">
-        <v>0.1365461847389558</v>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>20091000</t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>91282CAE1</t>
-        </is>
-      </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>20090900</t>
-        </is>
-      </c>
-      <c r="C456" t="n">
-        <v>35000000000</v>
-      </c>
-      <c r="D456" t="inlineStr">
-        <is>
-          <t>35000000000</t>
-        </is>
-      </c>
-      <c r="E456" t="n">
-        <v>1</v>
-      </c>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>20091500</t>
-        </is>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>912810SP4</t>
-        </is>
-      </c>
-      <c r="B457" t="inlineStr">
-        <is>
-          <t>20091000</t>
-        </is>
-      </c>
-      <c r="C457" t="n">
-        <v>23000000000</v>
-      </c>
-      <c r="D457" t="inlineStr">
-        <is>
-          <t>23000000000</t>
-        </is>
-      </c>
-      <c r="E457" t="n">
-        <v>1</v>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>20091500</t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="n">
-        <v>0</v>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>20091100</t>
-        </is>
-      </c>
-      <c r="C458" t="n">
-        <v>0</v>
-      </c>
-      <c r="D458" t="n">
-        <v>0</v>
-      </c>
-      <c r="E458" t="n">
-        <v>0</v>
-      </c>
-      <c r="F458" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="n">
-        <v>0</v>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>20091200</t>
-        </is>
-      </c>
-      <c r="C459" t="n">
-        <v>0</v>
-      </c>
-      <c r="D459" t="n">
-        <v>0</v>
-      </c>
-      <c r="E459" t="n">
-        <v>0</v>
-      </c>
-      <c r="F459" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="n">
-        <v>0</v>
-      </c>
-      <c r="B460" t="inlineStr">
-        <is>
-          <t>20091300</t>
-        </is>
-      </c>
-      <c r="C460" t="n">
-        <v>0</v>
-      </c>
-      <c r="D460" t="n">
-        <v>0</v>
-      </c>
-      <c r="E460" t="n">
-        <v>0</v>
-      </c>
-      <c r="F460" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="n">
-        <v>0</v>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>20091400</t>
-        </is>
-      </c>
-      <c r="C461" t="n">
-        <v>0</v>
-      </c>
-      <c r="D461" t="n">
-        <v>0</v>
-      </c>
-      <c r="E461" t="n">
-        <v>0</v>
-      </c>
-      <c r="F461" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
